--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3883.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3883.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.392196105872292</v>
+        <v>2.060852289199829</v>
       </c>
       <c r="B1">
-        <v>2.590498671221999</v>
+        <v>2.906769275665283</v>
       </c>
       <c r="C1">
-        <v>2.635774337887983</v>
+        <v>5.215261459350586</v>
       </c>
       <c r="D1">
-        <v>3.379564268879374</v>
+        <v>3.573774337768555</v>
       </c>
       <c r="E1">
-        <v>1.922292535090343</v>
+        <v>1.409287571907043</v>
       </c>
     </row>
   </sheetData>
